--- a/biology/Zoologie/Louis_Prosper_Cantener/Louis_Prosper_Cantener.xlsx
+++ b/biology/Zoologie/Louis_Prosper_Cantener/Louis_Prosper_Cantener.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Prosper Cantener est un entomologiste français spécialiste des coléoptères et lépidoptères.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Prosper Cantener est né à Metz le 1er mars 1804[1] et est mort à Hyères le 21 mars 1847[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Prosper Cantener est né à Metz le 1er mars 1804 et est mort à Hyères le 21 mars 1847.
 Louis Cantener était membre de la Société entomologique de France.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Catalogue des Lépidoptères du département du Var. Rev. Ent. 1 (1) : 69-94 (1833)
  Histoire naturelle des Lepidopteres Rhopaloceres, ou Papillons, Diurnes, des départements des haut et Bas-Rhin, de la Moselle, de la Meurthe, et des Vosges. L. P. Cantener. Roret et Levrault. Paris. (1834-)</t>
